--- a/backend/outputs/Summary_DEC_2025.xlsx
+++ b/backend/outputs/Summary_DEC_2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2286.610169491526</v>
+        <v>-981.949152542373</v>
       </c>
       <c r="C2" t="n">
-        <v>4107.881355932203</v>
+        <v>2388.983050847458</v>
       </c>
       <c r="D2" t="n">
-        <v>6394.491525423729</v>
+        <v>1407.033898305085</v>
       </c>
     </row>
     <row r="3">
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>33472.06779661017</v>
+        <v>63555.33898305085</v>
       </c>
       <c r="C3" t="n">
-        <v>35081.61016949153</v>
+        <v>132502.2881355932</v>
       </c>
       <c r="D3" t="n">
-        <v>68553.67796610169</v>
+        <v>196057.6271186441</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2362.881355932203</v>
+        <v>3100.932203389831</v>
       </c>
       <c r="C4" t="n">
-        <v>2625.593220338983</v>
+        <v>8539.915254237289</v>
       </c>
       <c r="D4" t="n">
-        <v>4988.474576271186</v>
+        <v>11640.84745762712</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11738.89830508475</v>
+        <v>30661.86440677966</v>
       </c>
       <c r="C5" t="n">
-        <v>18946.18644067796</v>
+        <v>64604.83050847458</v>
       </c>
       <c r="D5" t="n">
-        <v>30685.08474576271</v>
+        <v>95266.69491525425</v>
       </c>
     </row>
     <row r="6">
@@ -526,13 +526,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>28017.62711864407</v>
+        <v>32923.22033898305</v>
       </c>
       <c r="C6" t="n">
-        <v>26127.79661016949</v>
+        <v>75761.18644067798</v>
       </c>
       <c r="D6" t="n">
-        <v>54145.42372881356</v>
+        <v>108684.406779661</v>
       </c>
     </row>
     <row r="7">
@@ -542,13 +542,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>25282.03389830509</v>
+        <v>7191.186440677967</v>
       </c>
       <c r="C7" t="n">
-        <v>25442.20338983051</v>
+        <v>49077.62711864407</v>
       </c>
       <c r="D7" t="n">
-        <v>50724.23728813559</v>
+        <v>56268.81355932204</v>
       </c>
     </row>
     <row r="8">
@@ -558,13 +558,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2413.64406779661</v>
+        <v>5886.016949152543</v>
       </c>
       <c r="C8" t="n">
-        <v>4379.067796610169</v>
+        <v>22450.08474576271</v>
       </c>
       <c r="D8" t="n">
-        <v>6792.71186440678</v>
+        <v>28336.10169491525</v>
       </c>
     </row>
     <row r="9">
@@ -574,13 +574,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1143.305084745763</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>3939.576271186441</v>
       </c>
       <c r="D9" t="n">
-        <v>1143.305084745763</v>
+        <v>3939.576271186441</v>
       </c>
     </row>
     <row r="10">
@@ -590,13 +590,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>43422.96610169492</v>
+        <v>63463.89830508475</v>
       </c>
       <c r="C10" t="n">
-        <v>95842.03389830509</v>
+        <v>197114.7457627119</v>
       </c>
       <c r="D10" t="n">
-        <v>139265</v>
+        <v>260578.6440677966</v>
       </c>
     </row>
     <row r="11">
@@ -606,13 +606,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>915.0000000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>2583.220338983051</v>
+        <v>4405.169491525424</v>
       </c>
       <c r="D11" t="n">
-        <v>2583.220338983051</v>
+        <v>5320.169491525424</v>
       </c>
     </row>
     <row r="12">
@@ -622,13 +622,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9061.694915254237</v>
+        <v>14112.71186440678</v>
       </c>
       <c r="C12" t="n">
-        <v>5928.389830508474</v>
+        <v>29151.61016949153</v>
       </c>
       <c r="D12" t="n">
-        <v>14990.08474576271</v>
+        <v>43264.32203389831</v>
       </c>
     </row>
     <row r="13">
@@ -638,13 +638,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>76504.91525423729</v>
+        <v>159250.2542372881</v>
       </c>
       <c r="C13" t="n">
-        <v>210048.813559322</v>
+        <v>445832.1186440678</v>
       </c>
       <c r="D13" t="n">
-        <v>286553.7288135593</v>
+        <v>605082.3728813559</v>
       </c>
     </row>
     <row r="14">
@@ -654,13 +654,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3387.542372881356</v>
+        <v>26471.10169491526</v>
       </c>
       <c r="C14" t="n">
-        <v>22486.94915254237</v>
+        <v>56412.96610169492</v>
       </c>
       <c r="D14" t="n">
-        <v>25874.49152542373</v>
+        <v>82884.06779661018</v>
       </c>
     </row>
     <row r="15">
@@ -670,13 +670,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>28008.30508474576</v>
+        <v>62201.86440677967</v>
       </c>
       <c r="C15" t="n">
-        <v>67874.49152542373</v>
+        <v>150306.8644067797</v>
       </c>
       <c r="D15" t="n">
-        <v>95882.79661016949</v>
+        <v>212508.7288135593</v>
       </c>
     </row>
     <row r="16">
@@ -686,13 +686,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>17023.81355932204</v>
+        <v>12113.30508474576</v>
       </c>
       <c r="C16" t="n">
-        <v>23800.16949152542</v>
+        <v>57127.96610169492</v>
       </c>
       <c r="D16" t="n">
-        <v>40823.98305084746</v>
+        <v>69241.27118644069</v>
       </c>
     </row>
     <row r="17">
@@ -702,13 +702,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>12492.28813559322</v>
+        <v>22205.6779661017</v>
       </c>
       <c r="C17" t="n">
-        <v>14737.28813559322</v>
+        <v>37945.50847457627</v>
       </c>
       <c r="D17" t="n">
-        <v>27229.57627118644</v>
+        <v>60151.18644067797</v>
       </c>
     </row>
     <row r="18">
@@ -718,13 +718,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>119398.6949152542</v>
+        <v>186182.0338983051</v>
       </c>
       <c r="C18" t="n">
-        <v>248294.406779661</v>
+        <v>539965.5084745763</v>
       </c>
       <c r="D18" t="n">
-        <v>367693.1016949153</v>
+        <v>726147.5423728814</v>
       </c>
     </row>
     <row r="19">
@@ -734,317 +734,301 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>28557.1186440678</v>
+        <v>67564.32203389831</v>
       </c>
       <c r="C19" t="n">
-        <v>53744.66101694915</v>
+        <v>310459.9152542373</v>
       </c>
       <c r="D19" t="n">
-        <v>82301.77966101695</v>
+        <v>378024.2372881356</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>LA</t>
+          <t>MH</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1143.305084745763</v>
+        <v>350508.3898305085</v>
       </c>
       <c r="C20" t="n">
-        <v>1100.93220338983</v>
+        <v>1132401.101694915</v>
       </c>
       <c r="D20" t="n">
-        <v>2244.237288135593</v>
+        <v>1482909.491525424</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>MH</t>
+          <t>ML</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>202165.3389830508</v>
+        <v>5472.28813559322</v>
       </c>
       <c r="C21" t="n">
-        <v>535394.1525423729</v>
+        <v>10463.05084745763</v>
       </c>
       <c r="D21" t="n">
-        <v>737559.4915254237</v>
+        <v>15935.33898305085</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ML</t>
+          <t>MN</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>14190</v>
       </c>
       <c r="C22" t="n">
-        <v>2795</v>
+        <v>11886.10169491525</v>
       </c>
       <c r="D22" t="n">
-        <v>2795</v>
+        <v>26076.10169491526</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>MN</t>
+          <t>MP</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>4954.576271186441</v>
+        <v>30213.5593220339</v>
       </c>
       <c r="C23" t="n">
-        <v>2812.033898305085</v>
+        <v>94185.84745762713</v>
       </c>
       <c r="D23" t="n">
-        <v>7766.610169491526</v>
+        <v>124399.406779661</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>MP</t>
+          <t>MZ</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>28685.4406779661</v>
+        <v>3380.254237288136</v>
       </c>
       <c r="C24" t="n">
-        <v>56077.03389830508</v>
+        <v>2735.932203389831</v>
       </c>
       <c r="D24" t="n">
-        <v>84762.47457627118</v>
+        <v>6116.186440677966</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>MZ</t>
+          <t>NL</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>2999.06779661017</v>
       </c>
       <c r="C25" t="n">
-        <v>5480</v>
+        <v>6624.745762711865</v>
       </c>
       <c r="D25" t="n">
-        <v>5480</v>
+        <v>9623.813559322034</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>NL</t>
+          <t>OR</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>20349.83050847458</v>
       </c>
       <c r="C26" t="n">
-        <v>838.220338983051</v>
+        <v>79362.54237288136</v>
       </c>
       <c r="D26" t="n">
-        <v>838.220338983051</v>
+        <v>99712.37288135594</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>OR</t>
+          <t>PB</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>17379.15254237288</v>
+        <v>44252.28813559323</v>
       </c>
       <c r="C27" t="n">
-        <v>44673.59322033898</v>
+        <v>146233.8983050848</v>
       </c>
       <c r="D27" t="n">
-        <v>62052.74576271186</v>
+        <v>190486.186440678</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>PB</t>
+          <t>PY</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>21275.08474576271</v>
+        <v>6751.610169491526</v>
       </c>
       <c r="C28" t="n">
-        <v>56476.01694915254</v>
+        <v>11818.30508474576</v>
       </c>
       <c r="D28" t="n">
-        <v>77751.10169491525</v>
+        <v>18569.91525423729</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>PY</t>
+          <t>RJ</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1524.661016949153</v>
+        <v>48998.47457627119</v>
       </c>
       <c r="C29" t="n">
-        <v>4234.830508474576</v>
+        <v>98408.98305084746</v>
       </c>
       <c r="D29" t="n">
-        <v>5759.491525423728</v>
+        <v>147407.4576271187</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>RJ</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>48066.18644067796</v>
+        <v>4651.525423728814</v>
       </c>
       <c r="C30" t="n">
-        <v>76943.50847457627</v>
+        <v>7319.661016949153</v>
       </c>
       <c r="D30" t="n">
-        <v>125009.6949152542</v>
+        <v>11971.18644067797</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>TN</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>214160.8898305085</v>
       </c>
       <c r="C31" t="n">
-        <v>1143.305084745763</v>
+        <v>652542.7118644068</v>
       </c>
       <c r="D31" t="n">
-        <v>1143.305084745763</v>
+        <v>866703.6016949153</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46865.86440677966</v>
+        <v>4869.830508474577</v>
       </c>
       <c r="C32" t="n">
-        <v>117028.7288135593</v>
+        <v>5650.762711864407</v>
       </c>
       <c r="D32" t="n">
-        <v>163894.593220339</v>
+        <v>10520.59322033898</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>TS</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2286.610169491526</v>
+        <v>100133.5593220339</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>358408.9830508475</v>
       </c>
       <c r="D33" t="n">
-        <v>2286.610169491526</v>
+        <v>458542.5423728814</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>TS</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>93089.44067796611</v>
+        <v>27432.71186440678</v>
       </c>
       <c r="C34" t="n">
-        <v>151264.6101694915</v>
+        <v>64797.88135593221</v>
       </c>
       <c r="D34" t="n">
-        <v>244354.0508474576</v>
+        <v>92230.593220339</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>16480.6779661017</v>
+        <v>118456.9491525424</v>
       </c>
       <c r="C35" t="n">
-        <v>27273.5593220339</v>
+        <v>332423.4745762712</v>
       </c>
       <c r="D35" t="n">
-        <v>43754.23728813559</v>
+        <v>450880.4237288136</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>WB</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>82018.55932203391</v>
+        <v>58201.94915254238</v>
       </c>
       <c r="C36" t="n">
-        <v>140646.2711864407</v>
+        <v>150357.1186440678</v>
       </c>
       <c r="D36" t="n">
-        <v>222664.8305084746</v>
+        <v>208559.0677966102</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>WB</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24976.10169491525</v>
+        <v>762.4576271186442</v>
       </c>
       <c r="C37" t="n">
-        <v>67579.32203389831</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>92555.42372881356</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>0</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
+        <v>762.4576271186442</v>
       </c>
     </row>
   </sheetData>
